--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H2">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I2">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J2">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>8.497458773355</v>
+        <v>8.969770005531666</v>
       </c>
       <c r="R2">
-        <v>33.98983509342</v>
+        <v>53.81862003318999</v>
       </c>
       <c r="S2">
-        <v>0.02232963951329261</v>
+        <v>0.04393413821623136</v>
       </c>
       <c r="T2">
-        <v>0.01420567587360309</v>
+        <v>0.03844558023608519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H3">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I3">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J3">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
-        <v>47.3043533441575</v>
+        <v>31.99208371701445</v>
       </c>
       <c r="R3">
-        <v>283.826120064945</v>
+        <v>287.92875345313</v>
       </c>
       <c r="S3">
-        <v>0.124306476295784</v>
+        <v>0.1566979562443359</v>
       </c>
       <c r="T3">
-        <v>0.1186219896337625</v>
+        <v>0.2056832372575082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H4">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I4">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J4">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.280573301305</v>
+        <v>2.105989770752222</v>
       </c>
       <c r="R4">
-        <v>1.68343980783</v>
+        <v>18.95390793677</v>
       </c>
       <c r="S4">
-        <v>0.0007372910939962667</v>
+        <v>0.01031518596498432</v>
       </c>
       <c r="T4">
-        <v>0.0007035750599267594</v>
+        <v>0.01353981183317366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H5">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I5">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J5">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>51.18655793175</v>
+        <v>33.28025826375334</v>
       </c>
       <c r="R5">
-        <v>204.746231727</v>
+        <v>199.68154958252</v>
       </c>
       <c r="S5">
-        <v>0.1345081414370865</v>
+        <v>0.163007464576005</v>
       </c>
       <c r="T5">
-        <v>0.08557142440559973</v>
+        <v>0.1426434388582662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H6">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I6">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J6">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>9.209677038422498</v>
+        <v>18.51985691993778</v>
       </c>
       <c r="R6">
-        <v>55.25806223053499</v>
+        <v>166.67871227944</v>
       </c>
       <c r="S6">
-        <v>0.02420120812432346</v>
+        <v>0.09071068189748389</v>
       </c>
       <c r="T6">
-        <v>0.02309449631905778</v>
+        <v>0.1190677093287549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H7">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I7">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J7">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>2.09616764443</v>
+        <v>1.428400959695555</v>
       </c>
       <c r="R7">
-        <v>12.57700586658</v>
+        <v>12.85560863726</v>
       </c>
       <c r="S7">
-        <v>0.005508313615632786</v>
+        <v>0.006996340502907058</v>
       </c>
       <c r="T7">
-        <v>0.00525642058309448</v>
+        <v>0.009183463512120713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H8">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I8">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J8">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N8">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O8">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P8">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q8">
-        <v>5.746858232713334</v>
+        <v>1.278028524055667</v>
       </c>
       <c r="R8">
-        <v>34.48114939628</v>
+        <v>7.668171144333999</v>
       </c>
       <c r="S8">
-        <v>0.0151016057968847</v>
+        <v>0.00625981288099033</v>
       </c>
       <c r="T8">
-        <v>0.01441101525578343</v>
+        <v>0.005477793537101436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H9">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I9">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J9">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P9">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q9">
-        <v>31.99208371701445</v>
+        <v>4.558288061913111</v>
       </c>
       <c r="R9">
-        <v>287.9287534531301</v>
+        <v>41.024592557218</v>
       </c>
       <c r="S9">
-        <v>0.08406886290758196</v>
+        <v>0.0223265989671959</v>
       </c>
       <c r="T9">
-        <v>0.1203366399102524</v>
+        <v>0.02930610751146274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H10">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I10">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J10">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N10">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O10">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P10">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q10">
-        <v>0.1897526106911112</v>
+        <v>0.3000651072135556</v>
       </c>
       <c r="R10">
-        <v>1.70777349622</v>
+        <v>2.700585964922</v>
       </c>
       <c r="S10">
-        <v>0.0004986322977788046</v>
+        <v>0.001469725743921929</v>
       </c>
       <c r="T10">
-        <v>0.0007137450560190478</v>
+        <v>0.001929176079483736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H11">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I11">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J11">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N11">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O11">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P11">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q11">
-        <v>34.617630953</v>
+        <v>4.741829425145334</v>
       </c>
       <c r="R11">
-        <v>207.705785718</v>
+        <v>28.450976550872</v>
       </c>
       <c r="S11">
-        <v>0.09096828129470191</v>
+        <v>0.02322558875351897</v>
       </c>
       <c r="T11">
-        <v>0.08680833728296507</v>
+        <v>0.02032408673999764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H12">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I12">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J12">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N12">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O12">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P12">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q12">
-        <v>6.228533697021112</v>
+        <v>2.638741616620444</v>
       </c>
       <c r="R12">
-        <v>56.05680327319</v>
+        <v>23.748674549584</v>
       </c>
       <c r="S12">
-        <v>0.01636735356539596</v>
+        <v>0.01292461666575952</v>
       </c>
       <c r="T12">
-        <v>0.02342832130902066</v>
+        <v>0.01696497554812143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H13">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I13">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J13">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N13">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O13">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P13">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q13">
-        <v>1.417644804857778</v>
+        <v>0.2035210678928889</v>
       </c>
       <c r="R13">
-        <v>12.75880324372</v>
+        <v>1.831689611036</v>
       </c>
       <c r="S13">
-        <v>0.00372528991251203</v>
+        <v>0.0009968508357747123</v>
       </c>
       <c r="T13">
-        <v>0.005332400787388617</v>
+        <v>0.001308475948756395</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H14">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I14">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J14">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N14">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O14">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P14">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q14">
-        <v>2.916918549048</v>
+        <v>6.141839244600749</v>
       </c>
       <c r="R14">
-        <v>17.501511294288</v>
+        <v>24.56735697840299</v>
       </c>
       <c r="S14">
-        <v>0.007665084518457982</v>
+        <v>0.0300828688035206</v>
       </c>
       <c r="T14">
-        <v>0.007314563194011753</v>
+        <v>0.01754980512914047</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H15">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I15">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J15">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P15">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q15">
-        <v>16.238142414172</v>
+        <v>21.9058275929635</v>
       </c>
       <c r="R15">
-        <v>146.143281727548</v>
+        <v>131.434965557781</v>
       </c>
       <c r="S15">
-        <v>0.04267062378824674</v>
+        <v>0.1072952435365312</v>
       </c>
       <c r="T15">
-        <v>0.06107896921594972</v>
+        <v>0.09389117578753442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H16">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I16">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J16">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N16">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O16">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P16">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q16">
-        <v>0.09631226096800001</v>
+        <v>1.4420270101415</v>
       </c>
       <c r="R16">
-        <v>0.866810348712</v>
+        <v>8.652162060848999</v>
       </c>
       <c r="S16">
-        <v>0.0002530895560057524</v>
+        <v>0.00706308120899699</v>
       </c>
       <c r="T16">
-        <v>0.0003622738040312323</v>
+        <v>0.006180712001178117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H17">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I17">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J17">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N17">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O17">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P17">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q17">
-        <v>17.5707848988</v>
+        <v>22.787874845031</v>
       </c>
       <c r="R17">
-        <v>105.4247093928</v>
+        <v>91.15149938012399</v>
       </c>
       <c r="S17">
-        <v>0.04617254443011563</v>
+        <v>0.1116155311093099</v>
       </c>
       <c r="T17">
-        <v>0.04406109198784661</v>
+        <v>0.06511449533445632</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H18">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I18">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J18">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N18">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O18">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P18">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q18">
-        <v>3.161401367236</v>
+        <v>12.681036856588</v>
       </c>
       <c r="R18">
-        <v>28.452612305124</v>
+        <v>76.08622113952799</v>
       </c>
       <c r="S18">
-        <v>0.008307536967235967</v>
+        <v>0.06211200795994529</v>
       </c>
       <c r="T18">
-        <v>0.01189145481444622</v>
+        <v>0.05435254411719001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H19">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I19">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J19">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N19">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O19">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P19">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q19">
-        <v>0.719550449968</v>
+        <v>0.9780639933769998</v>
       </c>
       <c r="R19">
-        <v>6.475954049712</v>
+        <v>5.868383960261999</v>
       </c>
       <c r="S19">
-        <v>0.001890836141481999</v>
+        <v>0.004790579763231881</v>
       </c>
       <c r="T19">
-        <v>0.002706553413681171</v>
+        <v>0.0041921072346573</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H20">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I20">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J20">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N20">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O20">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P20">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q20">
-        <v>4.636892232101999</v>
+        <v>1.1849925970225</v>
       </c>
       <c r="R20">
-        <v>18.547568928408</v>
+        <v>7.109955582134999</v>
       </c>
       <c r="S20">
-        <v>0.01218483487433788</v>
+        <v>0.005804120786897658</v>
       </c>
       <c r="T20">
-        <v>0.00775175141968495</v>
+        <v>0.005079029667416221</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H21">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I21">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J21">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>72.555193</v>
       </c>
       <c r="O21">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P21">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q21">
-        <v>25.813033568803</v>
+        <v>4.226460917571666</v>
       </c>
       <c r="R21">
-        <v>154.878201412818</v>
+        <v>38.038148258145</v>
       </c>
       <c r="S21">
-        <v>0.06783154231277515</v>
+        <v>0.02070130204047383</v>
       </c>
       <c r="T21">
-        <v>0.0647296323477318</v>
+        <v>0.02717272720832967</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H22">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I22">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J22">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N22">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O22">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P22">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q22">
-        <v>0.153103203682</v>
+        <v>0.2782214355783333</v>
       </c>
       <c r="R22">
-        <v>0.918619222092</v>
+        <v>2.503992920205</v>
       </c>
       <c r="S22">
-        <v>0.000402324911215718</v>
+        <v>0.001362734941685084</v>
       </c>
       <c r="T22">
-        <v>0.0003839267499955185</v>
+        <v>0.001788738928366472</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H23">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I23">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J23">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N23">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O23">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P23">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q23">
-        <v>27.9314744787</v>
+        <v>4.39664112293</v>
       </c>
       <c r="R23">
-        <v>111.7258979148</v>
+        <v>26.37984673758</v>
       </c>
       <c r="S23">
-        <v>0.07339838566087589</v>
+        <v>0.0215348485705709</v>
       </c>
       <c r="T23">
-        <v>0.04669460408097615</v>
+        <v>0.01884456557488489</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H24">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I24">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J24">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N24">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O24">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P24">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q24">
-        <v>5.025535405188999</v>
+        <v>2.446650620306666</v>
       </c>
       <c r="R24">
-        <v>30.15321243113399</v>
+        <v>22.01985558276</v>
       </c>
       <c r="S24">
-        <v>0.01320611219804162</v>
+        <v>0.01198375058146321</v>
       </c>
       <c r="T24">
-        <v>0.01260220183967622</v>
+        <v>0.01572998572003389</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H25">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I25">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J25">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N25">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O25">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P25">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q25">
-        <v>1.143836495932</v>
+        <v>0.1887054586433333</v>
       </c>
       <c r="R25">
-        <v>6.863018975591999</v>
+        <v>1.69834912779</v>
       </c>
       <c r="S25">
-        <v>0.003005775879301497</v>
+        <v>0.0009242836435137924</v>
       </c>
       <c r="T25">
-        <v>0.002868322921064158</v>
+        <v>0.001213223557591571</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H26">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I26">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J26">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N26">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O26">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P26">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q26">
-        <v>4.337689685121999</v>
+        <v>1.4427473885765</v>
       </c>
       <c r="R26">
-        <v>26.026138110732</v>
+        <v>8.656484331459</v>
       </c>
       <c r="S26">
-        <v>0.01139858981052281</v>
+        <v>0.007066609639013786</v>
       </c>
       <c r="T26">
-        <v>0.01087733674572197</v>
+        <v>0.006183799635187246</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H27">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I27">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J27">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>72.555193</v>
       </c>
       <c r="O27">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P27">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q27">
-        <v>24.14740818816633</v>
+        <v>5.145783583010333</v>
       </c>
       <c r="R27">
-        <v>217.326673693497</v>
+        <v>46.312052247093</v>
       </c>
       <c r="S27">
-        <v>0.06345460853694666</v>
+        <v>0.02520416543873135</v>
       </c>
       <c r="T27">
-        <v>0.09082928106867391</v>
+        <v>0.03308322880566896</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,46 +2155,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H28">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I28">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J28">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N28">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O28">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P28">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q28">
-        <v>0.1432239858353333</v>
+        <v>0.3387390356996667</v>
       </c>
       <c r="R28">
-        <v>1.289015872518</v>
+        <v>3.048651321297</v>
       </c>
       <c r="S28">
-        <v>0.0003763642823885356</v>
+        <v>0.00165915152835404</v>
       </c>
       <c r="T28">
-        <v>0.0005387299358938411</v>
+        <v>0.002177818177286768</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H29">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I29">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J29">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N29">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O29">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P29">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q29">
-        <v>26.1291534657</v>
+        <v>5.352980697562001</v>
       </c>
       <c r="R29">
-        <v>156.7749207942</v>
+        <v>32.11788418537201</v>
       </c>
       <c r="S29">
-        <v>0.06866224282324107</v>
+        <v>0.02621902163494412</v>
       </c>
       <c r="T29">
-        <v>0.06552234524795734</v>
+        <v>0.02294355917525412</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H30">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I30">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J30">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N30">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O30">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P30">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q30">
-        <v>4.701255064412333</v>
+        <v>2.978836156509334</v>
       </c>
       <c r="R30">
-        <v>42.31129557971099</v>
+        <v>26.809525408584</v>
       </c>
       <c r="S30">
-        <v>0.01235396765648809</v>
+        <v>0.01459040748457087</v>
       </c>
       <c r="T30">
-        <v>0.01768353830330725</v>
+        <v>0.01915150852161283</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H31">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I31">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J31">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N31">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O31">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P31">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q31">
-        <v>1.070028700585333</v>
+        <v>0.2297519059206667</v>
       </c>
       <c r="R31">
-        <v>9.630258305267999</v>
+        <v>2.067767153286</v>
       </c>
       <c r="S31">
-        <v>0.002811823604001286</v>
+        <v>0.0011253300791365</v>
       </c>
       <c r="T31">
-        <v>0.004024860011462515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.261338</v>
-      </c>
-      <c r="H32">
-        <v>0.784014</v>
-      </c>
-      <c r="I32">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J32">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>4.344454</v>
-      </c>
-      <c r="N32">
-        <v>8.688908</v>
-      </c>
-      <c r="O32">
-        <v>0.07166328453363975</v>
-      </c>
-      <c r="P32">
-        <v>0.05740743684517154</v>
-      </c>
-      <c r="Q32">
-        <v>1.135370919452</v>
-      </c>
-      <c r="R32">
-        <v>6.812225516712</v>
-      </c>
-      <c r="S32">
-        <v>0.002983530020143775</v>
-      </c>
-      <c r="T32">
-        <v>0.00284709435636635</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.261338</v>
-      </c>
-      <c r="H33">
-        <v>0.784014</v>
-      </c>
-      <c r="I33">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J33">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>24.18506433333333</v>
-      </c>
-      <c r="N33">
-        <v>72.555193</v>
-      </c>
-      <c r="O33">
-        <v>0.3989410744788757</v>
-      </c>
-      <c r="P33">
-        <v>0.4793706711978918</v>
-      </c>
-      <c r="Q33">
-        <v>6.320476342744667</v>
-      </c>
-      <c r="R33">
-        <v>56.884287084702</v>
-      </c>
-      <c r="S33">
-        <v>0.01660896063754122</v>
-      </c>
-      <c r="T33">
-        <v>0.02377415902152161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.261338</v>
-      </c>
-      <c r="H34">
-        <v>0.784014</v>
-      </c>
-      <c r="I34">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J34">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1434473333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.430342</v>
-      </c>
-      <c r="O34">
-        <v>0.002366213812888463</v>
-      </c>
-      <c r="P34">
-        <v>0.002843260762667162</v>
-      </c>
-      <c r="Q34">
-        <v>0.03748823919866667</v>
-      </c>
-      <c r="R34">
-        <v>0.337394152788</v>
-      </c>
-      <c r="S34">
-        <v>9.85116715033859E-05</v>
-      </c>
-      <c r="T34">
-        <v>0.0001410101568007634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.261338</v>
-      </c>
-      <c r="H35">
-        <v>0.784014</v>
-      </c>
-      <c r="I35">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J35">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>26.1699</v>
-      </c>
-      <c r="N35">
-        <v>52.3398</v>
-      </c>
-      <c r="O35">
-        <v>0.4316816313205064</v>
-      </c>
-      <c r="P35">
-        <v>0.3458079845003433</v>
-      </c>
-      <c r="Q35">
-        <v>6.8391893262</v>
-      </c>
-      <c r="R35">
-        <v>41.0351359572</v>
-      </c>
-      <c r="S35">
-        <v>0.01797203567448535</v>
-      </c>
-      <c r="T35">
-        <v>0.01715018149499839</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.261338</v>
-      </c>
-      <c r="H36">
-        <v>0.784014</v>
-      </c>
-      <c r="I36">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J36">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>4.708586333333333</v>
-      </c>
-      <c r="N36">
-        <v>14.125759</v>
-      </c>
-      <c r="O36">
-        <v>0.07766977441972552</v>
-      </c>
-      <c r="P36">
-        <v>0.09332859982895587</v>
-      </c>
-      <c r="Q36">
-        <v>1.230532535180667</v>
-      </c>
-      <c r="R36">
-        <v>11.074792816626</v>
-      </c>
-      <c r="S36">
-        <v>0.003233595908240415</v>
-      </c>
-      <c r="T36">
-        <v>0.004628587243447758</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.261338</v>
-      </c>
-      <c r="H37">
-        <v>0.784014</v>
-      </c>
-      <c r="I37">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J37">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.071697333333333</v>
-      </c>
-      <c r="N37">
-        <v>3.215092</v>
-      </c>
-      <c r="O37">
-        <v>0.01767802143436428</v>
-      </c>
-      <c r="P37">
-        <v>0.0212420468649704</v>
-      </c>
-      <c r="Q37">
-        <v>0.2800752376986667</v>
-      </c>
-      <c r="R37">
-        <v>2.520677139288</v>
-      </c>
-      <c r="S37">
-        <v>0.0007359822814346819</v>
-      </c>
-      <c r="T37">
-        <v>0.001053489148279462</v>
+        <v>0.001477119033378649</v>
       </c>
     </row>
   </sheetData>
